--- a/ContactData.xlsx
+++ b/ContactData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5DB40D2E-C93B-4A15-B274-A0DC7B1106AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{72336236-7D78-4909-BCA2-C7D149B5A3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E58B3D6-63AB-4233-BF0A-F5DA233E25DB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Key (Column A)</t>
   </si>
@@ -76,9 +76,6 @@
     <t>https://i.imgur.com/zSgf1LZ.jpeg</t>
   </si>
   <si>
-    <t>+1 (555) 123-4567</t>
-  </si>
-  <si>
     <t>ahmed.maher@example.com</t>
   </si>
   <si>
@@ -101,6 +98,15 @@
   </si>
   <si>
     <t>https://lightingstores.com.sa/en</t>
+  </si>
+  <si>
+    <t>Header BG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 966 535531913</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/otJ9G8X.png</t>
   </si>
 </sst>
 </file>
@@ -972,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA1A648-052F-40CA-AD65-18340742C48C}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -993,9 +999,10 @@
     <col min="11" max="11" width="25.734375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="25.20703125" bestFit="1" customWidth="1"/>
     <col min="13" max="14" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1038,8 +1045,11 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1053,34 +1063,37 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1088,6 +1101,7 @@
     <hyperlink ref="K2" r:id="rId1" xr:uid="{2880834B-F153-49CD-BCA0-E683F8056ECA}"/>
     <hyperlink ref="M2" r:id="rId2" xr:uid="{B5B30267-674B-4201-91AD-A7EF9EC2DE0A}"/>
     <hyperlink ref="N2" r:id="rId3" xr:uid="{F1C8174A-B5F7-4215-AE9F-3C68330266EF}"/>
+    <hyperlink ref="O2" r:id="rId4" xr:uid="{1327FAA8-8686-475E-9064-1AA36296FACD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ContactData.xlsx
+++ b/ContactData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{72336236-7D78-4909-BCA2-C7D149B5A3D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EC9164-6510-499B-82C1-AD296058962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E58B3D6-63AB-4233-BF0A-F5DA233E25DB}"/>
   </bookViews>
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
-  <si>
-    <t>Key (Column A)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -64,15 +61,6 @@
     <t>webLink2_href</t>
   </si>
   <si>
-    <t>Example Value (Column B)</t>
-  </si>
-  <si>
-    <t>Ahmed Maher</t>
-  </si>
-  <si>
-    <t>Digital Portfolio Manager</t>
-  </si>
-  <si>
     <t>https://i.imgur.com/zSgf1LZ.jpeg</t>
   </si>
   <si>
@@ -107,6 +95,33 @@
   </si>
   <si>
     <t>https://i.imgur.com/otJ9G8X.png</t>
+  </si>
+  <si>
+    <t>WeChat QR</t>
+  </si>
+  <si>
+    <t>Brand logos</t>
+  </si>
+  <si>
+    <t>Riyas Moosa</t>
+  </si>
+  <si>
+    <t>Digital Content Creator</t>
+  </si>
+  <si>
+    <t>webLink1_text</t>
+  </si>
+  <si>
+    <t>www.lightingstores.com</t>
+  </si>
+  <si>
+    <t>webLink2_text</t>
+  </si>
+  <si>
+    <t>www.iluslighting.com</t>
+  </si>
+  <si>
+    <t>https://rmoosa2014.github.io/Resume/LS LOGO.png,https://rmoosa2014.github.io/Resume/Illuslogo.svg,https://rmoosa2014.github.io/Resume/Illictlogo.svg,https://rmoosa2014.github.io/Resume/HYP_Logo.png,</t>
   </si>
 </sst>
 </file>
@@ -257,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -435,6 +450,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -599,9 +620,10 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -978,31 +1000,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA1A648-052F-40CA-AD65-18340742C48C}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.3671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.68359375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.3125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.1015625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.5234375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.62890625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.20703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="27.68359375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="27.83984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.3671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1015625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5234375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.62890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.20703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.20703125" customWidth="1"/>
+    <col min="13" max="13" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.68359375" customWidth="1"/>
+    <col min="15" max="15" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="27.83984375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="33.1015625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="176.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1036,72 +1062,93 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="I2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="H2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="N2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>28</v>
+      <c r="Q2" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1" xr:uid="{2880834B-F153-49CD-BCA0-E683F8056ECA}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{2880834B-F153-49CD-BCA0-E683F8056ECA}"/>
     <hyperlink ref="M2" r:id="rId2" xr:uid="{B5B30267-674B-4201-91AD-A7EF9EC2DE0A}"/>
-    <hyperlink ref="N2" r:id="rId3" xr:uid="{F1C8174A-B5F7-4215-AE9F-3C68330266EF}"/>
-    <hyperlink ref="O2" r:id="rId4" xr:uid="{1327FAA8-8686-475E-9064-1AA36296FACD}"/>
+    <hyperlink ref="O2" r:id="rId3" xr:uid="{F1C8174A-B5F7-4215-AE9F-3C68330266EF}"/>
+    <hyperlink ref="P2" r:id="rId4" xr:uid="{1327FAA8-8686-475E-9064-1AA36296FACD}"/>
+    <hyperlink ref="L2" r:id="rId5" xr:uid="{459D1A2D-D7AA-4F9F-8B55-305A5938F4AA}"/>
+    <hyperlink ref="N2" r:id="rId6" xr:uid="{A0CFBB35-1AA1-4F6B-9C08-95CD04D68D22}"/>
+    <hyperlink ref="R2" r:id="rId7" xr:uid="{7A788229-59C7-42ED-A690-ABB362AC9287}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ContactData.xlsx
+++ b/ContactData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EC9164-6510-499B-82C1-AD296058962E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365C0FC9-D00F-4384-9B0C-FFBC7C9CF658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E58B3D6-63AB-4233-BF0A-F5DA233E25DB}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>https://rmoosa2014.github.io/Resume/</t>
   </si>
   <si>
-    <t>https://linkedin.com/in/ahmed</t>
-  </si>
-  <si>
     <t>https://instagram.com/ahmed</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>https://rmoosa2014.github.io/Resume/LS LOGO.png,https://rmoosa2014.github.io/Resume/Illuslogo.svg,https://rmoosa2014.github.io/Resume/Illictlogo.svg,https://rmoosa2014.github.io/Resume/HYP_Logo.png,</t>
+  </si>
+  <si>
+    <t>https://sa.linkedin.com/in/riyas-moosa-72923992?trk=people-guest_people_search-card</t>
   </si>
 </sst>
 </file>
@@ -1002,29 +1002,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA1A648-052F-40CA-AD65-18340742C48C}">
   <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="12.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.3671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5234375" customWidth="1"/>
+    <col min="3" max="3" width="26.47265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.3125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1015625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5234375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.62890625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.20703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25.20703125" customWidth="1"/>
-    <col min="13" max="13" width="27.68359375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.68359375" customWidth="1"/>
-    <col min="15" max="15" width="27.68359375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="27.83984375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="33.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.62890625" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="10.83984375" customWidth="1"/>
+    <col min="8" max="8" width="14.5234375" customWidth="1"/>
+    <col min="9" max="9" width="12.9453125" customWidth="1"/>
+    <col min="10" max="10" width="12.578125" customWidth="1"/>
+    <col min="11" max="11" width="13.47265625" customWidth="1"/>
+    <col min="12" max="12" width="15.734375" customWidth="1"/>
+    <col min="13" max="13" width="15.15625" customWidth="1"/>
+    <col min="14" max="14" width="16.1015625" customWidth="1"/>
+    <col min="15" max="15" width="16.47265625" customWidth="1"/>
+    <col min="16" max="16" width="13.89453125" customWidth="1"/>
+    <col min="17" max="17" width="14.26171875" customWidth="1"/>
     <col min="18" max="18" width="176.62890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1063,39 +1063,39 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O1" t="s">
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Q1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R1" t="s">
         <v>25</v>
-      </c>
-      <c r="R1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>
@@ -1103,41 +1103,41 @@
       <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q2" t="s">
         <v>15</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1149,6 +1149,8 @@
     <hyperlink ref="L2" r:id="rId5" xr:uid="{459D1A2D-D7AA-4F9F-8B55-305A5938F4AA}"/>
     <hyperlink ref="N2" r:id="rId6" xr:uid="{A0CFBB35-1AA1-4F6B-9C08-95CD04D68D22}"/>
     <hyperlink ref="R2" r:id="rId7" xr:uid="{7A788229-59C7-42ED-A690-ABB362AC9287}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{45B66F68-32EA-4FE7-8311-EE6822229F19}"/>
+    <hyperlink ref="G2" r:id="rId9" xr:uid="{824D3432-4378-4EDC-9D6A-6261595C022A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ContactData.xlsx
+++ b/ContactData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365C0FC9-D00F-4384-9B0C-FFBC7C9CF658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D52E27F-4864-451F-904D-854C348CF50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E58B3D6-63AB-4233-BF0A-F5DA233E25DB}"/>
   </bookViews>
@@ -61,9 +61,6 @@
     <t>webLink2_href</t>
   </si>
   <si>
-    <t>https://i.imgur.com/zSgf1LZ.jpeg</t>
-  </si>
-  <si>
     <t>ahmed.maher@example.com</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>https://sa.linkedin.com/in/riyas-moosa-72923992?trk=people-guest_people_search-card</t>
+  </si>
+  <si>
+    <t>https://rmoosa2014.github.io/Resume/LS LOGO.png</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1063,81 +1063,81 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O1" t="s">
         <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" t="s">
         <v>24</v>
-      </c>
-      <c r="R1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
         <v>26</v>
       </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
       <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="Q2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/ContactData.xlsx
+++ b/ContactData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D52E27F-4864-451F-904D-854C348CF50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80B9D95-8396-4444-9BA3-91B377591F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E58B3D6-63AB-4233-BF0A-F5DA233E25DB}"/>
   </bookViews>
@@ -28,9 +28,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>mainImageUrl</t>
-  </si>
-  <si>
     <t>whatsappNumber</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>https://rmoosa2014.github.io/Resume/LS LOGO.png</t>
+  </si>
+  <si>
+    <t>mainImageURI</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1036,108 +1036,108 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
       <c r="P1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" t="s">
         <v>23</v>
-      </c>
-      <c r="R1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
         <v>25</v>
       </c>
-      <c r="B2" t="s">
-        <v>26</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" t="s">
+      <c r="Q2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/ContactData.xlsx
+++ b/ContactData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F80B9D95-8396-4444-9BA3-91B377591F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA060DE9-088D-44E2-A0CE-A04825256776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E58B3D6-63AB-4233-BF0A-F5DA233E25DB}"/>
   </bookViews>
@@ -37,9 +37,6 @@
     <t>qrCodeUrl</t>
   </si>
   <si>
-    <t>Linkdin</t>
-  </si>
-  <si>
     <t>instagram</t>
   </si>
   <si>
@@ -122,6 +119,9 @@
   </si>
   <si>
     <t>mainImageURI</t>
+  </si>
+  <si>
+    <t>linkedin</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1048,96 +1048,96 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="N1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
       <c r="P1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R1" t="s">
         <v>22</v>
-      </c>
-      <c r="R1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" t="s">
-        <v>25</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="Q2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>13</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/ContactData.xlsx
+++ b/ContactData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA060DE9-088D-44E2-A0CE-A04825256776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14632210-2600-4A0A-ADD6-45F2D948B632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E58B3D6-63AB-4233-BF0A-F5DA233E25DB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
   <si>
     <t>name</t>
   </si>
@@ -65,9 +65,6 @@
   </si>
   <si>
     <t>https://behance.net/ahmed</t>
-  </si>
-  <si>
-    <t>https://youtube.com/@ahmed</t>
   </si>
   <si>
     <t>https://facebook.com/ahmed</t>
@@ -1003,7 +1000,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1036,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1048,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1063,39 +1060,39 @@
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M1" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O1" t="s">
         <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Q1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" t="s">
         <v>21</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1104,7 +1101,7 @@
         <v>12</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H2" t="s">
         <v>13</v>
@@ -1112,45 +1109,42 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="N2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
         <v>12</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{2880834B-F153-49CD-BCA0-E683F8056ECA}"/>
-    <hyperlink ref="M2" r:id="rId2" xr:uid="{B5B30267-674B-4201-91AD-A7EF9EC2DE0A}"/>
-    <hyperlink ref="O2" r:id="rId3" xr:uid="{F1C8174A-B5F7-4215-AE9F-3C68330266EF}"/>
-    <hyperlink ref="P2" r:id="rId4" xr:uid="{1327FAA8-8686-475E-9064-1AA36296FACD}"/>
-    <hyperlink ref="L2" r:id="rId5" xr:uid="{459D1A2D-D7AA-4F9F-8B55-305A5938F4AA}"/>
-    <hyperlink ref="N2" r:id="rId6" xr:uid="{A0CFBB35-1AA1-4F6B-9C08-95CD04D68D22}"/>
-    <hyperlink ref="R2" r:id="rId7" xr:uid="{7A788229-59C7-42ED-A690-ABB362AC9287}"/>
-    <hyperlink ref="C2" r:id="rId8" xr:uid="{45B66F68-32EA-4FE7-8311-EE6822229F19}"/>
-    <hyperlink ref="G2" r:id="rId9" xr:uid="{824D3432-4378-4EDC-9D6A-6261595C022A}"/>
+    <hyperlink ref="M2" r:id="rId1" xr:uid="{B5B30267-674B-4201-91AD-A7EF9EC2DE0A}"/>
+    <hyperlink ref="O2" r:id="rId2" xr:uid="{F1C8174A-B5F7-4215-AE9F-3C68330266EF}"/>
+    <hyperlink ref="P2" r:id="rId3" xr:uid="{1327FAA8-8686-475E-9064-1AA36296FACD}"/>
+    <hyperlink ref="L2" r:id="rId4" xr:uid="{459D1A2D-D7AA-4F9F-8B55-305A5938F4AA}"/>
+    <hyperlink ref="N2" r:id="rId5" xr:uid="{A0CFBB35-1AA1-4F6B-9C08-95CD04D68D22}"/>
+    <hyperlink ref="R2" r:id="rId6" xr:uid="{7A788229-59C7-42ED-A690-ABB362AC9287}"/>
+    <hyperlink ref="C2" r:id="rId7" xr:uid="{45B66F68-32EA-4FE7-8311-EE6822229F19}"/>
+    <hyperlink ref="G2" r:id="rId8" xr:uid="{824D3432-4378-4EDC-9D6A-6261595C022A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ContactData.xlsx
+++ b/ContactData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14632210-2600-4A0A-ADD6-45F2D948B632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC56C68-B1C6-42A3-A33A-DD4F815443BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E58B3D6-63AB-4233-BF0A-F5DA233E25DB}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>webLink2_href</t>
   </si>
   <si>
-    <t>ahmed.maher@example.com</t>
-  </si>
-  <si>
     <t>https://rmoosa2014.github.io/Resume/</t>
   </si>
   <si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>linkedin</t>
+  </si>
+  <si>
+    <t>Riyasmoosa@example.com</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1000,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1033,7 +1033,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1045,7 +1045,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1060,79 +1060,79 @@
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M1" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O1" t="s">
         <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="R1" t="s">
         <v>20</v>
-      </c>
-      <c r="R1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1145,6 +1145,7 @@
     <hyperlink ref="R2" r:id="rId6" xr:uid="{7A788229-59C7-42ED-A690-ABB362AC9287}"/>
     <hyperlink ref="C2" r:id="rId7" xr:uid="{45B66F68-32EA-4FE7-8311-EE6822229F19}"/>
     <hyperlink ref="G2" r:id="rId8" xr:uid="{824D3432-4378-4EDC-9D6A-6261595C022A}"/>
+    <hyperlink ref="E2" r:id="rId9" xr:uid="{CA938F88-3FB3-48CA-82F0-C121C45D5127}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ContactData.xlsx
+++ b/ContactData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC56C68-B1C6-42A3-A33A-DD4F815443BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B2B3DA-BBEB-4641-950A-E187B214FB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E58B3D6-63AB-4233-BF0A-F5DA233E25DB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>name</t>
   </si>
@@ -55,6 +55,9 @@
     <t>webLink2_href</t>
   </si>
   <si>
+    <t>ahmed.maher@example.com</t>
+  </si>
+  <si>
     <t>https://rmoosa2014.github.io/Resume/</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
     <t>https://behance.net/ahmed</t>
   </si>
   <si>
+    <t>https://youtube.com/@ahmed</t>
+  </si>
+  <si>
     <t>https://facebook.com/ahmed</t>
   </si>
   <si>
@@ -116,9 +122,6 @@
   </si>
   <si>
     <t>linkedin</t>
-  </si>
-  <si>
-    <t>Riyasmoosa@example.com</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1003,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1033,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1045,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1060,79 +1063,81 @@
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M1" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O1" t="s">
         <v>10</v>
       </c>
       <c r="P1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="R1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="1"/>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1150,7 @@
     <hyperlink ref="R2" r:id="rId6" xr:uid="{7A788229-59C7-42ED-A690-ABB362AC9287}"/>
     <hyperlink ref="C2" r:id="rId7" xr:uid="{45B66F68-32EA-4FE7-8311-EE6822229F19}"/>
     <hyperlink ref="G2" r:id="rId8" xr:uid="{824D3432-4378-4EDC-9D6A-6261595C022A}"/>
-    <hyperlink ref="E2" r:id="rId9" xr:uid="{CA938F88-3FB3-48CA-82F0-C121C45D5127}"/>
+    <hyperlink ref="J2" r:id="rId9" xr:uid="{2880834B-F153-49CD-BCA0-E683F8056ECA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ContactData.xlsx
+++ b/ContactData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B2B3DA-BBEB-4641-950A-E187B214FB14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB5D783-9132-4D23-ADC5-9F3D99322BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E58B3D6-63AB-4233-BF0A-F5DA233E25DB}"/>
   </bookViews>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/ContactData.xlsx
+++ b/ContactData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB5D783-9132-4D23-ADC5-9F3D99322BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650E3B0-FC9F-46B4-B7D1-FF8EFE151547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E58B3D6-63AB-4233-BF0A-F5DA233E25DB}"/>
   </bookViews>
@@ -115,13 +115,13 @@
     <t>https://sa.linkedin.com/in/riyas-moosa-72923992?trk=people-guest_people_search-card</t>
   </si>
   <si>
-    <t>https://rmoosa2014.github.io/Resume/LS LOGO.png</t>
-  </si>
-  <si>
     <t>mainImageURI</t>
   </si>
   <si>
     <t>linkedin</t>
+  </si>
+  <si>
+    <t>https://rmoosa2014.github.io/Resume/DP.png</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1003,7 @@
   <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1048,7 +1048,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1092,7 +1092,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>

--- a/ContactData.xlsx
+++ b/ContactData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8650E3B0-FC9F-46B4-B7D1-FF8EFE151547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD3EC89-1DF1-491C-AB72-1C33E3D192D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E58B3D6-63AB-4233-BF0A-F5DA233E25DB}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>name</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>https://rmoosa2014.github.io/Resume/DP.png</t>
+  </si>
+  <si>
+    <t>Bio</t>
+  </si>
+  <si>
+    <t>As a versatile Digital Content Creator, I bring ideas to life across the digital landscape, specializing in end-to-end media production, from compelling Design and professional-grade Video Editing to pioneering the use of AI content generation. I thrive on transforming complex concepts into captivating, high-impact digital experiences that drive engagement and tell unforgettable stories.</t>
   </si>
 </sst>
 </file>
@@ -1000,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA1A648-052F-40CA-AD65-18340742C48C}">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1025,10 +1031,10 @@
     <col min="15" max="15" width="16.47265625" customWidth="1"/>
     <col min="16" max="16" width="13.89453125" customWidth="1"/>
     <col min="17" max="17" width="14.26171875" customWidth="1"/>
-    <col min="18" max="18" width="176.62890625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="22.7890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1083,8 +1089,11 @@
       <c r="R1" t="s">
         <v>22</v>
       </c>
+      <c r="S1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -1138,6 +1147,9 @@
       </c>
       <c r="R2" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="S2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/ContactData.xlsx
+++ b/ContactData.xlsx
@@ -1,26 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosaKaithakkod\Downloads\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAD3EC89-1DF1-491C-AB72-1C33E3D192D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A665023C-5807-4BBB-907A-E0B4A9CD2780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E58B3D6-63AB-4233-BF0A-F5DA233E25DB}"/>
   </bookViews>
   <sheets>
     <sheet name="ContactData" sheetId="1" r:id="rId1"/>
+    <sheet name="Edit Data" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -61,18 +75,6 @@
     <t>https://rmoosa2014.github.io/Resume/</t>
   </si>
   <si>
-    <t>https://instagram.com/ahmed</t>
-  </si>
-  <si>
-    <t>https://behance.net/ahmed</t>
-  </si>
-  <si>
-    <t>https://youtube.com/@ahmed</t>
-  </si>
-  <si>
-    <t>https://facebook.com/ahmed</t>
-  </si>
-  <si>
     <t>https://lightingstores.com.sa/en</t>
   </si>
   <si>
@@ -94,9 +96,6 @@
     <t>Riyas Moosa</t>
   </si>
   <si>
-    <t>Digital Content Creator</t>
-  </si>
-  <si>
     <t>webLink1_text</t>
   </si>
   <si>
@@ -109,9 +108,6 @@
     <t>www.iluslighting.com</t>
   </si>
   <si>
-    <t>https://rmoosa2014.github.io/Resume/LS LOGO.png,https://rmoosa2014.github.io/Resume/Illuslogo.svg,https://rmoosa2014.github.io/Resume/Illictlogo.svg,https://rmoosa2014.github.io/Resume/HYP_Logo.png,</t>
-  </si>
-  <si>
     <t>https://sa.linkedin.com/in/riyas-moosa-72923992?trk=people-guest_people_search-card</t>
   </si>
   <si>
@@ -128,6 +124,33 @@
   </si>
   <si>
     <t>As a versatile Digital Content Creator, I bring ideas to life across the digital landscape, specializing in end-to-end media production, from compelling Design and professional-grade Video Editing to pioneering the use of AI content generation. I thrive on transforming complex concepts into captivating, high-impact digital experiences that drive engagement and tell unforgettable stories.</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>https://instagram.com/riyas</t>
+  </si>
+  <si>
+    <t>https://behance.net/riyas</t>
+  </si>
+  <si>
+    <t>https://youtube.com/@riyas</t>
+  </si>
+  <si>
+    <t>https://facebook.com/riyas`</t>
+  </si>
+  <si>
+    <t>https://rmoosa2014.github.io/Resume/LS LOGO.png</t>
+  </si>
+  <si>
+    <t>https://rmoosa2014.github.io/Resume/Illuslogo.svg</t>
+  </si>
+  <si>
+    <t>https://rmoosa2014.github.io/Resume/Illictlogo.svg</t>
+  </si>
+  <si>
+    <t>https://rmoosa2014.github.io/Resume/HYP_Logo.png,</t>
   </si>
 </sst>
 </file>
@@ -626,10 +649,19 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1008,8 +1040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA1A648-052F-40CA-AD65-18340742C48C}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1025,13 +1057,14 @@
     <col min="9" max="9" width="12.9453125" customWidth="1"/>
     <col min="10" max="10" width="12.578125" customWidth="1"/>
     <col min="11" max="11" width="13.47265625" customWidth="1"/>
-    <col min="12" max="12" width="15.734375" customWidth="1"/>
-    <col min="13" max="13" width="15.15625" customWidth="1"/>
+    <col min="12" max="12" width="19.578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.05078125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.1015625" customWidth="1"/>
     <col min="15" max="15" width="16.47265625" customWidth="1"/>
     <col min="16" max="16" width="13.89453125" customWidth="1"/>
     <col min="17" max="17" width="14.26171875" customWidth="1"/>
-    <col min="18" max="18" width="22.7890625" customWidth="1"/>
+    <col min="18" max="18" width="169.3125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="47.15625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
@@ -1042,7 +1075,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1054,7 +1087,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -1069,100 +1102,277 @@
         <v>8</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="O1" t="s">
         <v>10</v>
       </c>
       <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
-      </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="A2" t="str">
+        <f>'Edit Data'!A2</f>
+        <v>Riyas Moosa</v>
+      </c>
+      <c r="B2" t="str">
+        <f>'Edit Data'!B2</f>
+        <v>Designer</v>
+      </c>
+      <c r="C2" t="str">
+        <f>'Edit Data'!C2</f>
+        <v>https://rmoosa2014.github.io/Resume/DP.png</v>
+      </c>
+      <c r="D2" t="str">
+        <f>'Edit Data'!D2</f>
+        <v xml:space="preserve"> 966 535531913</v>
+      </c>
+      <c r="E2" t="str">
+        <f>'Edit Data'!E2</f>
+        <v>ahmed.maher@example.com</v>
+      </c>
+      <c r="F2" t="str">
+        <f>'Edit Data'!F2</f>
+        <v>https://rmoosa2014.github.io/Resume/</v>
+      </c>
+      <c r="G2" t="str">
+        <f>'Edit Data'!G2</f>
+        <v>https://sa.linkedin.com/in/riyas-moosa-72923992?trk=people-guest_people_search-card</v>
+      </c>
+      <c r="H2" t="str">
+        <f>'Edit Data'!H2</f>
+        <v>https://instagram.com/riyas</v>
+      </c>
+      <c r="I2" t="str">
+        <f>'Edit Data'!I2</f>
+        <v>https://behance.net/riyas</v>
+      </c>
+      <c r="J2" t="str">
+        <f>'Edit Data'!J2</f>
+        <v>https://youtube.com/@riyas</v>
+      </c>
+      <c r="K2" t="str">
+        <f>'Edit Data'!K2</f>
+        <v>https://facebook.com/riyas`</v>
+      </c>
+      <c r="L2" t="str">
+        <f>'Edit Data'!L2</f>
+        <v>www.lightingstores.com</v>
+      </c>
+      <c r="M2" t="str">
+        <f>'Edit Data'!L3</f>
+        <v>https://lightingstores.com.sa/en</v>
+      </c>
+      <c r="N2" t="str">
+        <f>'Edit Data'!L4</f>
+        <v>www.iluslighting.com</v>
+      </c>
+      <c r="O2" t="str">
+        <f>'Edit Data'!L5</f>
+        <v>https://lightingstores.com.sa/en</v>
+      </c>
+      <c r="P2" t="str">
+        <f>'Edit Data'!M2</f>
+        <v>https://i.imgur.com/otJ9G8X.png</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>'Edit Data'!N2</f>
+        <v>https://rmoosa2014.github.io/Resume/</v>
+      </c>
+      <c r="R2" t="str">
+        <f>'Edit Data'!O2&amp;","&amp;'Edit Data'!O3&amp;","&amp;'Edit Data'!O4&amp;","&amp;'Edit Data'!O5&amp;","&amp;'Edit Data'!O6</f>
+        <v>https://rmoosa2014.github.io/Resume/LS LOGO.png,https://rmoosa2014.github.io/Resume/Illuslogo.svg,https://rmoosa2014.github.io/Resume/Illictlogo.svg,https://rmoosa2014.github.io/Resume/HYP_Logo.png,,</v>
+      </c>
+      <c r="S2" t="str">
+        <f>'Edit Data'!P2</f>
+        <v>As a versatile Digital Content Creator, I bring ideas to life across the digital landscape, specializing in end-to-end media production, from compelling Design and professional-grade Video Editing to pioneering the use of AI content generation. I thrive on transforming complex concepts into captivating, high-impact digital experiences that drive engagement and tell unforgettable stories.</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD4D8C6-F3FA-4E9C-81CB-046CA88150DA}">
+  <dimension ref="A1:Q9"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="11.1015625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.20703125" customWidth="1"/>
+    <col min="4" max="4" width="14.89453125" customWidth="1"/>
+    <col min="5" max="5" width="25.3125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.1015625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.9453125" customWidth="1"/>
+    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.62890625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.20703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.83984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33.1015625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.3125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="57.9453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="86.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="L4" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="O4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="L5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>12</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="S2" t="s">
-        <v>35</v>
-      </c>
+      <c r="O5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q9" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{B5B30267-674B-4201-91AD-A7EF9EC2DE0A}"/>
-    <hyperlink ref="O2" r:id="rId2" xr:uid="{F1C8174A-B5F7-4215-AE9F-3C68330266EF}"/>
-    <hyperlink ref="P2" r:id="rId3" xr:uid="{1327FAA8-8686-475E-9064-1AA36296FACD}"/>
-    <hyperlink ref="L2" r:id="rId4" xr:uid="{459D1A2D-D7AA-4F9F-8B55-305A5938F4AA}"/>
-    <hyperlink ref="N2" r:id="rId5" xr:uid="{A0CFBB35-1AA1-4F6B-9C08-95CD04D68D22}"/>
-    <hyperlink ref="R2" r:id="rId6" xr:uid="{7A788229-59C7-42ED-A690-ABB362AC9287}"/>
-    <hyperlink ref="C2" r:id="rId7" xr:uid="{45B66F68-32EA-4FE7-8311-EE6822229F19}"/>
-    <hyperlink ref="G2" r:id="rId8" xr:uid="{824D3432-4378-4EDC-9D6A-6261595C022A}"/>
-    <hyperlink ref="J2" r:id="rId9" xr:uid="{2880834B-F153-49CD-BCA0-E683F8056ECA}"/>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{CB03C92B-F614-4F89-B41C-8753B88D6C9D}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{E82C4E0A-DF90-48DE-97BF-796D2EF284F7}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{7651338D-CCC1-44A9-871F-611840C09624}"/>
+    <hyperlink ref="K2" r:id="rId4" xr:uid="{B465B82B-12FF-4E80-92E9-33B3D275F25A}"/>
+    <hyperlink ref="O2" r:id="rId5" xr:uid="{683EA4E8-62A7-45C5-A885-B4C8DDED584B}"/>
+    <hyperlink ref="O3" r:id="rId6" xr:uid="{E34E701B-C5A9-4279-9FD3-2C32BCDD3447}"/>
+    <hyperlink ref="O4" r:id="rId7" xr:uid="{385D5008-7C86-48AE-9357-50DBB87A117F}"/>
+    <hyperlink ref="O5" r:id="rId8" xr:uid="{B71B3DAA-D425-4BBF-9D03-F3A4D2853A77}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ContactData.xlsx
+++ b/ContactData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RiyasMoosaKaithakkod\Downloads\Codes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A665023C-5807-4BBB-907A-E0B4A9CD2780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2BBE194-306E-4FB8-9D0A-3C0C683B20CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9E58B3D6-63AB-4233-BF0A-F5DA233E25DB}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>name</t>
   </si>
@@ -151,6 +151,27 @@
   </si>
   <si>
     <t>https://rmoosa2014.github.io/Resume/HYP_Logo.png,</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>URL1</t>
+  </si>
+  <si>
+    <t>URL2</t>
+  </si>
+  <si>
+    <t>URL3</t>
+  </si>
+  <si>
+    <t>URL4</t>
+  </si>
+  <si>
+    <t>URL5</t>
   </si>
 </sst>
 </file>
@@ -649,7 +670,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
@@ -661,6 +682,12 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1040,8 +1067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA1A648-052F-40CA-AD65-18340742C48C}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1063,7 +1090,7 @@
     <col min="15" max="15" width="16.47265625" customWidth="1"/>
     <col min="16" max="16" width="13.89453125" customWidth="1"/>
     <col min="17" max="17" width="14.26171875" customWidth="1"/>
-    <col min="18" max="18" width="169.3125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="44.41796875" customWidth="1"/>
     <col min="19" max="19" width="47.15625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1128,79 +1155,79 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="str">
-        <f>'Edit Data'!A2</f>
+        <f>'Edit Data'!$B2</f>
         <v>Riyas Moosa</v>
       </c>
       <c r="B2" t="str">
-        <f>'Edit Data'!B2</f>
+        <f>'Edit Data'!$B3</f>
         <v>Designer</v>
       </c>
       <c r="C2" t="str">
-        <f>'Edit Data'!C2</f>
+        <f>'Edit Data'!$B4</f>
         <v>https://rmoosa2014.github.io/Resume/DP.png</v>
       </c>
       <c r="D2" t="str">
-        <f>'Edit Data'!D2</f>
+        <f>'Edit Data'!$B5</f>
         <v xml:space="preserve"> 966 535531913</v>
       </c>
       <c r="E2" t="str">
-        <f>'Edit Data'!E2</f>
+        <f>'Edit Data'!$B6</f>
         <v>ahmed.maher@example.com</v>
       </c>
       <c r="F2" t="str">
-        <f>'Edit Data'!F2</f>
+        <f>'Edit Data'!$B7</f>
         <v>https://rmoosa2014.github.io/Resume/</v>
       </c>
       <c r="G2" t="str">
-        <f>'Edit Data'!G2</f>
+        <f>'Edit Data'!$B8</f>
         <v>https://sa.linkedin.com/in/riyas-moosa-72923992?trk=people-guest_people_search-card</v>
       </c>
       <c r="H2" t="str">
-        <f>'Edit Data'!H2</f>
+        <f>'Edit Data'!$B9</f>
         <v>https://instagram.com/riyas</v>
       </c>
       <c r="I2" t="str">
-        <f>'Edit Data'!I2</f>
+        <f>'Edit Data'!$B10</f>
         <v>https://behance.net/riyas</v>
       </c>
       <c r="J2" t="str">
-        <f>'Edit Data'!J2</f>
+        <f>'Edit Data'!$B11</f>
         <v>https://youtube.com/@riyas</v>
       </c>
       <c r="K2" t="str">
-        <f>'Edit Data'!K2</f>
+        <f>'Edit Data'!$B12</f>
         <v>https://facebook.com/riyas`</v>
       </c>
       <c r="L2" t="str">
-        <f>'Edit Data'!L2</f>
+        <f>'Edit Data'!$B13</f>
         <v>www.lightingstores.com</v>
       </c>
       <c r="M2" t="str">
-        <f>'Edit Data'!L3</f>
+        <f>'Edit Data'!$C13</f>
         <v>https://lightingstores.com.sa/en</v>
       </c>
       <c r="N2" t="str">
-        <f>'Edit Data'!L4</f>
+        <f>'Edit Data'!$D13</f>
         <v>www.iluslighting.com</v>
       </c>
       <c r="O2" t="str">
-        <f>'Edit Data'!L5</f>
+        <f>'Edit Data'!$E13</f>
         <v>https://lightingstores.com.sa/en</v>
       </c>
       <c r="P2" t="str">
-        <f>'Edit Data'!M2</f>
+        <f>'Edit Data'!$B14</f>
         <v>https://i.imgur.com/otJ9G8X.png</v>
       </c>
       <c r="Q2" t="str">
-        <f>'Edit Data'!N2</f>
+        <f>'Edit Data'!$B15</f>
         <v>https://rmoosa2014.github.io/Resume/</v>
       </c>
       <c r="R2" t="str">
-        <f>'Edit Data'!O2&amp;","&amp;'Edit Data'!O3&amp;","&amp;'Edit Data'!O4&amp;","&amp;'Edit Data'!O5&amp;","&amp;'Edit Data'!O6</f>
-        <v>https://rmoosa2014.github.io/Resume/LS LOGO.png,https://rmoosa2014.github.io/Resume/Illuslogo.svg,https://rmoosa2014.github.io/Resume/Illictlogo.svg,https://rmoosa2014.github.io/Resume/HYP_Logo.png,,</v>
+        <f>'Edit Data'!$B16&amp;","&amp;'Edit Data'!$C16&amp;","&amp;'Edit Data'!$D16&amp;","&amp;'Edit Data'!$E16&amp;","&amp;'Edit Data'!$F16&amp;","&amp;'Edit Data'!$G16&amp;","</f>
+        <v>https://rmoosa2014.github.io/Resume/LS LOGO.png,https://rmoosa2014.github.io/Resume/Illuslogo.svg,https://rmoosa2014.github.io/Resume/Illictlogo.svg,https://rmoosa2014.github.io/Resume/HYP_Logo.png,,,,</v>
       </c>
       <c r="S2" t="str">
-        <f>'Edit Data'!P2</f>
+        <f>'Edit Data'!$B17</f>
         <v>As a versatile Digital Content Creator, I bring ideas to life across the digital landscape, specializing in end-to-end media production, from compelling Design and professional-grade Video Editing to pioneering the use of AI content generation. I thrive on transforming complex concepts into captivating, high-impact digital experiences that drive engagement and tell unforgettable stories.</v>
       </c>
     </row>
@@ -1211,168 +1238,269 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDD4D8C6-F3FA-4E9C-81CB-046CA88150DA}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.1015625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.20703125" customWidth="1"/>
-    <col min="4" max="4" width="14.89453125" customWidth="1"/>
-    <col min="5" max="5" width="25.3125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.1015625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.9453125" customWidth="1"/>
-    <col min="8" max="8" width="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.62890625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.20703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="27.68359375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="27.83984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33.1015625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="45.3125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="57.9453125" customWidth="1"/>
+    <col min="1" max="1" width="22.68359375" customWidth="1"/>
+    <col min="2" max="2" width="74.7890625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.05078125" customWidth="1"/>
+    <col min="4" max="4" width="20.1015625" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="18.05078125" customWidth="1"/>
+    <col min="7" max="7" width="25.3125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.1015625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.9453125" customWidth="1"/>
+    <col min="10" max="10" width="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.62890625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="25.20703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.83984375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="33.1015625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="45.3125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="57.9453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="25.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="B10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="B13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="N1" t="s">
+      <c r="B14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:19" ht="43.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="B16" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="72" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" ht="86.4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="3" t="s">
+      <c r="B17" s="6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="L4" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="Q9" s="3"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{CB03C92B-F614-4F89-B41C-8753B88D6C9D}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{E82C4E0A-DF90-48DE-97BF-796D2EF284F7}"/>
-    <hyperlink ref="J2" r:id="rId3" xr:uid="{7651338D-CCC1-44A9-871F-611840C09624}"/>
-    <hyperlink ref="K2" r:id="rId4" xr:uid="{B465B82B-12FF-4E80-92E9-33B3D275F25A}"/>
-    <hyperlink ref="O2" r:id="rId5" xr:uid="{683EA4E8-62A7-45C5-A885-B4C8DDED584B}"/>
-    <hyperlink ref="O3" r:id="rId6" xr:uid="{E34E701B-C5A9-4279-9FD3-2C32BCDD3447}"/>
-    <hyperlink ref="O4" r:id="rId7" xr:uid="{385D5008-7C86-48AE-9357-50DBB87A117F}"/>
-    <hyperlink ref="O5" r:id="rId8" xr:uid="{B71B3DAA-D425-4BBF-9D03-F3A4D2853A77}"/>
+    <hyperlink ref="B9" r:id="rId1" xr:uid="{767CD47C-6322-4CE0-AEF5-26270405053C}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{2EBDF0B7-85E2-4742-890F-940A2552B065}"/>
+    <hyperlink ref="B11" r:id="rId3" xr:uid="{1FC28838-CE8B-4D7E-BB88-6EE5BEFC374F}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{4EDE0D2A-AF0F-4064-B779-0AF6B294A0BA}"/>
+    <hyperlink ref="B16" r:id="rId5" xr:uid="{B92762BB-CF4C-4F90-92CC-6D331BE45F93}"/>
+    <hyperlink ref="C16" r:id="rId6" xr:uid="{D360398B-C3CC-485F-B7C3-47E989A606AF}"/>
+    <hyperlink ref="D16" r:id="rId7" xr:uid="{0525D212-B45E-4113-A1B3-153E5CCAD923}"/>
+    <hyperlink ref="E16" r:id="rId8" xr:uid="{DAE3E442-23B0-4E90-9AB8-DEA3EDFC7ABF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
